--- a/database/industries/darou/dalber/product/yearly.xlsx
+++ b/database/industries/darou/dalber/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dalber\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dalber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE75F57D-9812-451C-857B-93A28CB727C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5290A89-16DF-4C9F-AC22-03FCF04A502E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="52">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مایعات</t>
   </si>
   <si>
@@ -70,54 +70,54 @@
     <t>جعبه 100عددی</t>
   </si>
   <si>
+    <t>فرآورده های تزریقی</t>
+  </si>
+  <si>
+    <t>شربتها</t>
+  </si>
+  <si>
+    <t>شیشه</t>
+  </si>
+  <si>
+    <t>سایر / تخفیفات</t>
+  </si>
+  <si>
+    <t>قرصها</t>
+  </si>
+  <si>
+    <t>جعبه صدی</t>
+  </si>
+  <si>
+    <t>امبولها</t>
+  </si>
+  <si>
+    <t>قطره ها</t>
+  </si>
+  <si>
+    <t>عدد</t>
+  </si>
+  <si>
+    <t>جمع</t>
+  </si>
+  <si>
+    <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>برگشت از فروش و تخفیفات</t>
+  </si>
+  <si>
+    <t>برگشت از فروش</t>
+  </si>
+  <si>
+    <t>ریال</t>
+  </si>
+  <si>
     <t>جعبه صد عددی</t>
   </si>
   <si>
-    <t>فرآورده های تزریقی</t>
-  </si>
-  <si>
     <t>جعبه صدعددی</t>
   </si>
   <si>
-    <t>شربتها</t>
-  </si>
-  <si>
-    <t>شیشه</t>
-  </si>
-  <si>
-    <t>سایر / تخفیفات</t>
-  </si>
-  <si>
-    <t>قرصها</t>
-  </si>
-  <si>
-    <t>جعبه صدی</t>
-  </si>
-  <si>
-    <t>امبولها</t>
-  </si>
-  <si>
-    <t>قطره ها</t>
-  </si>
-  <si>
-    <t>عدد</t>
-  </si>
-  <si>
-    <t>جمع</t>
-  </si>
-  <si>
-    <t>مقدار فروش</t>
-  </si>
-  <si>
-    <t>برگشت از فروش و تخفیفات</t>
-  </si>
-  <si>
-    <t>برگشت از فروش</t>
-  </si>
-  <si>
-    <t>ریال</t>
-  </si>
-  <si>
     <t>خدمات ارائه شده.</t>
   </si>
   <si>
@@ -157,22 +157,19 @@
     <t>ریال / ریال</t>
   </si>
   <si>
-    <t>جعبه صد عددی / ریال</t>
+    <t>جعبه 100عددی / ریال</t>
+  </si>
+  <si>
+    <t>شیشه / ریال</t>
+  </si>
+  <si>
+    <t>جعبه صدی / ریال</t>
+  </si>
+  <si>
+    <t>عدد / ریال</t>
   </si>
   <si>
     <t>جعبه صدعددی / ریال</t>
-  </si>
-  <si>
-    <t>شیشه / ریال</t>
-  </si>
-  <si>
-    <t>جعبه صدی / ریال</t>
-  </si>
-  <si>
-    <t>عدد / ریال</t>
-  </si>
-  <si>
-    <t>00 / ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -634,16 +631,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I122"/>
+  <dimension ref="B1:I120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -653,7 +650,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -665,7 +662,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +674,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -687,7 +684,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -699,7 +696,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -711,7 +708,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -721,7 +718,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -743,7 +740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -753,7 +750,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -762,22 +759,22 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>27000000</v>
+        <v>31370278</v>
       </c>
       <c r="F10" s="9">
-        <v>31370278</v>
+        <v>40411697</v>
       </c>
       <c r="G10" s="9">
-        <v>40411697</v>
+        <v>38138743</v>
       </c>
       <c r="H10" s="9">
-        <v>38138743</v>
+        <v>22536671</v>
       </c>
       <c r="I10" s="9">
-        <v>22536671</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41433535</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -799,7 +796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -807,80 +804,78 @@
         <v>15</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>13</v>
+      <c r="E12" s="9">
+        <v>22308608</v>
       </c>
       <c r="F12" s="9">
-        <v>22308608</v>
+        <v>22397129</v>
       </c>
       <c r="G12" s="9">
-        <v>22397129</v>
+        <v>27045722</v>
       </c>
       <c r="H12" s="9">
-        <v>27045722</v>
+        <v>20622294</v>
       </c>
       <c r="I12" s="9">
-        <v>20622294</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22377792</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>19700000</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>562500</v>
+      </c>
+      <c r="F13" s="11">
+        <v>659704</v>
+      </c>
+      <c r="G13" s="11">
+        <v>756251</v>
+      </c>
+      <c r="H13" s="11">
+        <v>881451</v>
+      </c>
+      <c r="I13" s="11">
+        <v>989666</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="9">
-        <v>562500</v>
-      </c>
-      <c r="G14" s="9">
-        <v>659704</v>
-      </c>
-      <c r="H14" s="9">
-        <v>756251</v>
-      </c>
-      <c r="I14" s="9">
-        <v>881451</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="11">
-        <v>610000</v>
+      <c r="E15" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>13</v>
@@ -888,19 +883,19 @@
       <c r="G15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
@@ -919,11 +914,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
         <v>13</v>
@@ -937,16 +934,16 @@
       <c r="H17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
@@ -965,77 +962,49 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13">
-        <v>47310000</v>
-      </c>
-      <c r="F21" s="13">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13">
         <v>54241386</v>
       </c>
-      <c r="G21" s="13">
+      <c r="F19" s="13">
         <v>63468530</v>
       </c>
-      <c r="H21" s="13">
+      <c r="G19" s="13">
         <v>65940716</v>
       </c>
-      <c r="I21" s="13">
+      <c r="H19" s="13">
         <v>44040416</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="13">
+        <v>64800993</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1045,17 +1014,29 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1065,41 +1046,55 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11">
+        <v>26139669</v>
+      </c>
+      <c r="F26" s="11">
+        <v>33997457</v>
+      </c>
+      <c r="G26" s="11">
+        <v>26011610</v>
+      </c>
+      <c r="H26" s="11">
+        <v>24000634</v>
+      </c>
+      <c r="I26" s="11">
+        <v>40592460</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1119,38 +1114,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
-        <v>13</v>
+      <c r="E28" s="11">
+        <v>0</v>
       </c>
       <c r="F28" s="11">
-        <v>26139669</v>
+        <v>0</v>
       </c>
       <c r="G28" s="11">
-        <v>33997457</v>
-      </c>
-      <c r="H28" s="11">
-        <v>26011610</v>
-      </c>
-      <c r="I28" s="11">
-        <v>24000634</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9">
-        <v>375081</v>
+      <c r="E29" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>13</v>
@@ -1158,40 +1155,40 @@
       <c r="G29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="9">
+        <v>19254083</v>
+      </c>
+      <c r="I29" s="9">
+        <v>26201613</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>13</v>
+      <c r="E30" s="11">
+        <v>20736274</v>
       </c>
       <c r="F30" s="11">
-        <v>0</v>
+        <v>22564279</v>
       </c>
       <c r="G30" s="11">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0</v>
+        <v>23637476</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>15</v>
@@ -1206,43 +1203,43 @@
       <c r="G31" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>13</v>
+      <c r="H31" s="9">
+        <v>870278</v>
       </c>
       <c r="I31" s="9">
-        <v>19254083</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1018059</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>13</v>
+      <c r="E32" s="11">
+        <v>503627</v>
       </c>
       <c r="F32" s="11">
-        <v>20736274</v>
+        <v>657320</v>
       </c>
       <c r="G32" s="11">
-        <v>22564279</v>
-      </c>
-      <c r="H32" s="11">
-        <v>23637476</v>
+        <v>709368</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
@@ -1257,40 +1254,38 @@
       <c r="H33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="9">
-        <v>870278</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C34" s="11"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>13</v>
+      <c r="E34" s="11">
+        <v>0</v>
       </c>
       <c r="F34" s="11">
-        <v>503627</v>
+        <v>0</v>
       </c>
       <c r="G34" s="11">
-        <v>657320</v>
+        <v>0</v>
       </c>
       <c r="H34" s="11">
-        <v>709368</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>-489716</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
@@ -1309,34 +1304,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="11">
-        <v>0</v>
-      </c>
-      <c r="G36" s="11">
-        <v>0</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
@@ -1355,22 +1352,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>13</v>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>13</v>
@@ -1379,13 +1376,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>26</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
         <v>13</v>
@@ -1403,40 +1398,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11">
-        <v>1</v>
-      </c>
-      <c r="F40" s="11">
-        <v>0</v>
-      </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
+      <c r="E40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="9">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="D41" s="9"/>
-      <c r="E41" s="9">
-        <v>1</v>
+      <c r="E41" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>13</v>
@@ -1451,16 +1446,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="11">
-        <v>22205486</v>
+      <c r="E42" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>13</v>
@@ -1475,22 +1470,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>19482006</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>13</v>
@@ -1499,22 +1494,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11">
-        <v>543872</v>
+      <c r="E44" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="11" t="s">
-        <v>13</v>
+      <c r="G44" s="11">
+        <v>0</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>13</v>
@@ -1523,77 +1518,49 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="9">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9">
-        <v>0</v>
-      </c>
-      <c r="H45" s="9">
-        <v>0</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15">
-        <v>42606447</v>
-      </c>
-      <c r="F47" s="15">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15">
         <v>47379570</v>
       </c>
-      <c r="G47" s="15">
+      <c r="F45" s="15">
         <v>57219056</v>
       </c>
-      <c r="H47" s="15">
+      <c r="G45" s="15">
         <v>50358454</v>
       </c>
-      <c r="I47" s="15">
+      <c r="H45" s="15">
         <v>44124995</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="15">
+        <v>67322416</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1603,17 +1570,29 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B49" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1623,41 +1602,57 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11">
+        <v>864937</v>
+      </c>
+      <c r="F52" s="11">
+        <v>1740040</v>
+      </c>
+      <c r="G52" s="11">
+        <v>2228291</v>
+      </c>
+      <c r="H52" s="11">
+        <v>2446753</v>
+      </c>
+      <c r="I52" s="11">
+        <v>4750372</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>40</v>
@@ -1679,81 +1674,81 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>13</v>
+      <c r="E54" s="11">
+        <v>0</v>
       </c>
       <c r="F54" s="11">
-        <v>864937</v>
+        <v>-233675</v>
       </c>
       <c r="G54" s="11">
-        <v>1740040</v>
-      </c>
-      <c r="H54" s="11">
-        <v>2228291</v>
-      </c>
-      <c r="I54" s="11">
-        <v>2446753</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-369258</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
-        <v>185838</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2796959</v>
+      </c>
+      <c r="F55" s="9">
+        <v>3854124</v>
+      </c>
+      <c r="G55" s="9">
+        <v>4683206</v>
+      </c>
+      <c r="H55" s="9">
+        <v>4437526</v>
+      </c>
+      <c r="I55" s="9">
+        <v>8250797</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>13</v>
+      <c r="E56" s="11">
+        <v>1497945</v>
       </c>
       <c r="F56" s="11">
-        <v>0</v>
+        <v>2202819</v>
       </c>
       <c r="G56" s="11">
-        <v>-233675</v>
+        <v>2452944</v>
       </c>
       <c r="H56" s="11">
-        <v>-369258</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7656295</v>
+      </c>
+      <c r="I56" s="11">
+        <v>10487655</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>40</v>
@@ -1762,46 +1757,46 @@
       <c r="E57" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="9">
-        <v>2796959</v>
-      </c>
-      <c r="G57" s="9">
-        <v>3854124</v>
-      </c>
-      <c r="H57" s="9">
-        <v>4683206</v>
-      </c>
-      <c r="I57" s="9">
-        <v>4437526</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F57" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>13</v>
+      <c r="E58" s="11">
+        <v>-407681</v>
       </c>
       <c r="F58" s="11">
-        <v>1497945</v>
+        <v>-319532</v>
       </c>
       <c r="G58" s="11">
-        <v>2202819</v>
+        <v>-658308</v>
       </c>
       <c r="H58" s="11">
-        <v>2452944</v>
+        <v>0</v>
       </c>
       <c r="I58" s="11">
-        <v>7656295</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-357664</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>40</v>
@@ -1823,9 +1818,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>40</v>
@@ -1834,22 +1829,22 @@
       <c r="E60" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="11">
-        <v>-407681</v>
-      </c>
-      <c r="G60" s="11">
-        <v>-319532</v>
-      </c>
-      <c r="H60" s="11">
-        <v>-658308</v>
-      </c>
-      <c r="I60" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F60" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>40</v>
@@ -1871,22 +1866,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>13</v>
+      <c r="E62" s="11">
+        <v>91801</v>
+      </c>
+      <c r="F62" s="11">
+        <v>138159</v>
+      </c>
+      <c r="G62" s="11">
+        <v>421754</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>13</v>
@@ -1895,9 +1890,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>40</v>
@@ -1919,40 +1914,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11">
-        <v>95269</v>
-      </c>
-      <c r="F64" s="11">
-        <v>91801</v>
-      </c>
-      <c r="G64" s="11">
-        <v>138159</v>
-      </c>
-      <c r="H64" s="11">
-        <v>421754</v>
+      <c r="E64" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I64" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="9">
-        <v>-257365</v>
+      <c r="E65" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>13</v>
@@ -1967,16 +1962,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11">
-        <v>562073</v>
+      <c r="E66" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>13</v>
@@ -1991,22 +1986,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
-        <v>1924324</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>13</v>
+        <v>48500</v>
+      </c>
+      <c r="F67" s="9">
+        <v>26407</v>
+      </c>
+      <c r="G67" s="9">
+        <v>22347</v>
       </c>
       <c r="H67" s="9" t="s">
         <v>13</v>
@@ -2015,22 +2010,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D68" s="11"/>
-      <c r="E68" s="11">
-        <v>1099260</v>
+      <c r="E68" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G68" s="11" t="s">
-        <v>13</v>
+      <c r="G68" s="11">
+        <v>19869</v>
       </c>
       <c r="H68" s="11" t="s">
         <v>13</v>
@@ -2039,77 +2034,49 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="9">
-        <v>48500</v>
-      </c>
-      <c r="G69" s="9">
-        <v>26407</v>
-      </c>
-      <c r="H69" s="9">
-        <v>22347</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="11">
-        <v>19869</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15">
-        <v>3609399</v>
-      </c>
-      <c r="F71" s="15">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15">
         <v>4892461</v>
       </c>
-      <c r="G71" s="15">
+      <c r="F69" s="15">
         <v>7408342</v>
       </c>
-      <c r="H71" s="15">
+      <c r="G69" s="15">
         <v>8800845</v>
       </c>
-      <c r="I71" s="15">
+      <c r="H69" s="15">
         <v>14540574</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I69" s="15">
+        <v>23131160</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2119,17 +2086,29 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B73" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2139,41 +2118,57 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B75" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11">
+        <v>33089</v>
+      </c>
+      <c r="F76" s="11">
+        <v>51181</v>
+      </c>
+      <c r="G76" s="11">
+        <v>85665</v>
+      </c>
+      <c r="H76" s="11">
+        <v>101945</v>
+      </c>
+      <c r="I76" s="11">
+        <v>117026</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>42</v>
@@ -2195,129 +2190,129 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>13</v>
+      <c r="E78" s="11">
+        <v>0</v>
       </c>
       <c r="F78" s="11">
-        <v>33089</v>
+        <v>0</v>
       </c>
       <c r="G78" s="11">
-        <v>51181</v>
-      </c>
-      <c r="H78" s="11">
-        <v>85665</v>
-      </c>
-      <c r="I78" s="11">
-        <v>101945</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
-        <v>495461</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>134882</v>
+      </c>
+      <c r="F79" s="9">
+        <v>170806</v>
+      </c>
+      <c r="G79" s="9">
+        <v>198126</v>
+      </c>
+      <c r="H79" s="9">
+        <v>230472</v>
+      </c>
+      <c r="I79" s="9">
+        <v>314897</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>13</v>
+      <c r="E80" s="11">
+        <v>2974314</v>
       </c>
       <c r="F80" s="11">
-        <v>0</v>
+        <v>3351213</v>
       </c>
       <c r="G80" s="11">
-        <v>0</v>
+        <v>3457929</v>
       </c>
       <c r="H80" s="11">
-        <v>0</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8797528</v>
+      </c>
+      <c r="I80" s="11">
+        <v>10301618</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="9">
-        <v>134882</v>
-      </c>
-      <c r="G81" s="9">
-        <v>170806</v>
-      </c>
-      <c r="H81" s="9">
-        <v>198126</v>
-      </c>
-      <c r="I81" s="9">
-        <v>230472</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F81" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>13</v>
+      <c r="E82" s="11">
+        <v>0</v>
       </c>
       <c r="F82" s="11">
-        <v>2974314</v>
+        <v>0</v>
       </c>
       <c r="G82" s="11">
-        <v>3351213</v>
+        <v>0</v>
       </c>
       <c r="H82" s="11">
-        <v>3457929</v>
+        <v>0</v>
       </c>
       <c r="I82" s="11">
-        <v>8797528</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>47</v>
@@ -2339,33 +2334,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="11">
-        <v>0</v>
-      </c>
-      <c r="G84" s="11">
-        <v>0</v>
-      </c>
-      <c r="H84" s="11">
-        <v>0</v>
-      </c>
-      <c r="I84" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F84" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>48</v>
@@ -2387,22 +2382,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>13</v>
+      <c r="E86" s="11">
+        <v>0</v>
+      </c>
+      <c r="F86" s="11">
+        <v>0</v>
+      </c>
+      <c r="G86" s="11">
+        <v>0</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>13</v>
@@ -2411,12 +2406,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
@@ -2435,40 +2430,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="11">
-        <v>95269000000</v>
-      </c>
-      <c r="F88" s="11">
-        <v>0</v>
-      </c>
-      <c r="G88" s="11">
-        <v>0</v>
-      </c>
-      <c r="H88" s="11">
-        <v>0</v>
+      <c r="E88" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I88" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D89" s="9"/>
-      <c r="E89" s="9">
-        <v>-257365000000</v>
+      <c r="E89" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="F89" s="9" t="s">
         <v>13</v>
@@ -2483,16 +2478,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D90" s="11"/>
-      <c r="E90" s="11">
-        <v>25312</v>
+      <c r="E90" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F90" s="11" t="s">
         <v>13</v>
@@ -2507,22 +2502,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>98774</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="F91" s="9">
+        <v>0</v>
+      </c>
+      <c r="G91" s="9">
+        <v>0</v>
       </c>
       <c r="H91" s="9" t="s">
         <v>13</v>
@@ -2531,22 +2526,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11">
-        <v>2021174</v>
+      <c r="E92" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G92" s="11" t="s">
-        <v>13</v>
+      <c r="G92" s="11">
+        <v>0</v>
       </c>
       <c r="H92" s="11" t="s">
         <v>13</v>
@@ -2555,55 +2550,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="9">
-        <v>0</v>
-      </c>
-      <c r="G93" s="9">
-        <v>0</v>
-      </c>
-      <c r="H93" s="9">
-        <v>0</v>
-      </c>
-      <c r="I93" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="11">
-        <v>0</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2613,17 +2580,29 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B96" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2633,161 +2612,177 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B98" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9">
+        <v>-516843</v>
+      </c>
+      <c r="F98" s="9">
+        <v>-792931</v>
+      </c>
+      <c r="G98" s="9">
+        <v>-822445</v>
+      </c>
+      <c r="H98" s="9">
+        <v>-1136165</v>
+      </c>
+      <c r="I98" s="9">
+        <v>-2786585</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11">
+        <v>0</v>
+      </c>
+      <c r="F99" s="11">
+        <v>0</v>
+      </c>
+      <c r="G99" s="11">
+        <v>0</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D100" s="9"/>
-      <c r="E100" s="9" t="s">
-        <v>13</v>
+      <c r="E100" s="9">
+        <v>-1400473</v>
       </c>
       <c r="F100" s="9">
-        <v>-516843</v>
+        <v>-1928430</v>
       </c>
       <c r="G100" s="9">
-        <v>-792931</v>
+        <v>-2153827</v>
       </c>
       <c r="H100" s="9">
-        <v>-822445</v>
+        <v>-2584524</v>
       </c>
       <c r="I100" s="9">
-        <v>-1136165</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4348279</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D101" s="11"/>
-      <c r="E101" s="11" t="s">
-        <v>13</v>
+      <c r="E101" s="11">
+        <v>-695549</v>
       </c>
       <c r="F101" s="11">
-        <v>0</v>
+        <v>-1011097</v>
       </c>
       <c r="G101" s="11">
-        <v>0</v>
+        <v>-1345831</v>
       </c>
       <c r="H101" s="11">
-        <v>0</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4236525</v>
+      </c>
+      <c r="I101" s="11">
+        <v>-6383267</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D102" s="9"/>
-      <c r="E102" s="9" t="s">
-        <v>13</v>
+      <c r="E102" s="9">
+        <v>0</v>
       </c>
       <c r="F102" s="9">
-        <v>-1400473</v>
+        <v>0</v>
       </c>
       <c r="G102" s="9">
-        <v>-1928430</v>
+        <v>0</v>
       </c>
       <c r="H102" s="9">
-        <v>-2153827</v>
+        <v>0</v>
       </c>
       <c r="I102" s="9">
-        <v>-2584524</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D103" s="11"/>
-      <c r="E103" s="11" t="s">
-        <v>13</v>
+      <c r="E103" s="11">
+        <v>-28263</v>
       </c>
       <c r="F103" s="11">
-        <v>-695549</v>
+        <v>-45736</v>
       </c>
       <c r="G103" s="11">
-        <v>-1011097</v>
-      </c>
-      <c r="H103" s="11">
-        <v>-1345831</v>
-      </c>
-      <c r="I103" s="11">
-        <v>-4236525</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-155339</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D104" s="9"/>
-      <c r="E104" s="9" t="s">
-        <v>13</v>
+      <c r="E104" s="9">
+        <v>-22607</v>
       </c>
       <c r="F104" s="9">
-        <v>0</v>
+        <v>-17710</v>
       </c>
       <c r="G104" s="9">
-        <v>0</v>
-      </c>
-      <c r="H104" s="9">
-        <v>0</v>
-      </c>
-      <c r="I104" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-15642</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>40</v>
@@ -2796,90 +2791,62 @@
       <c r="E105" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F105" s="11">
-        <v>-28263</v>
+      <c r="F105" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G105" s="11">
-        <v>-45736</v>
-      </c>
-      <c r="H105" s="11">
-        <v>-155339</v>
+        <v>-10653</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I105" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" s="9">
-        <v>-22607</v>
-      </c>
-      <c r="G106" s="9">
-        <v>-17710</v>
-      </c>
-      <c r="H106" s="9">
-        <v>-15642</v>
-      </c>
-      <c r="I106" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="11">
-        <v>-10653</v>
-      </c>
-      <c r="I107" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15">
-        <v>0</v>
-      </c>
-      <c r="F108" s="15">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B106" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15">
         <v>-2663735</v>
       </c>
-      <c r="G108" s="15">
+      <c r="F106" s="15">
         <v>-3795904</v>
       </c>
-      <c r="H108" s="15">
+      <c r="G106" s="15">
         <v>-4503737</v>
       </c>
-      <c r="I108" s="15">
+      <c r="H106" s="15">
         <v>-7957214</v>
       </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I106" s="15">
+        <v>-13518131</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2889,17 +2856,29 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B110" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2909,161 +2888,177 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B112" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B112" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9">
+        <v>348094</v>
+      </c>
+      <c r="F112" s="9">
+        <v>947109</v>
+      </c>
+      <c r="G112" s="9">
+        <v>1405846</v>
+      </c>
+      <c r="H112" s="9">
+        <v>1310588</v>
+      </c>
+      <c r="I112" s="9">
+        <v>1963787</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B113" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="11">
+        <v>-233675</v>
+      </c>
+      <c r="G113" s="11">
+        <v>-369258</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D114" s="9"/>
-      <c r="E114" s="9" t="s">
-        <v>13</v>
+      <c r="E114" s="9">
+        <v>1396486</v>
       </c>
       <c r="F114" s="9">
-        <v>348094</v>
+        <v>1925694</v>
       </c>
       <c r="G114" s="9">
-        <v>947109</v>
+        <v>2529379</v>
       </c>
       <c r="H114" s="9">
-        <v>1405846</v>
+        <v>1853002</v>
       </c>
       <c r="I114" s="9">
-        <v>1310588</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3902518</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D115" s="11"/>
-      <c r="E115" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>13</v>
+      <c r="E115" s="11">
+        <v>802396</v>
+      </c>
+      <c r="F115" s="11">
+        <v>1191722</v>
       </c>
       <c r="G115" s="11">
-        <v>-233675</v>
+        <v>1107113</v>
       </c>
       <c r="H115" s="11">
-        <v>-369258</v>
-      </c>
-      <c r="I115" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3419770</v>
+      </c>
+      <c r="I115" s="11">
+        <v>4104388</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D116" s="9"/>
-      <c r="E116" s="9" t="s">
-        <v>13</v>
+      <c r="E116" s="9">
+        <v>-407681</v>
       </c>
       <c r="F116" s="9">
-        <v>1396486</v>
+        <v>-319532</v>
       </c>
       <c r="G116" s="9">
-        <v>1925694</v>
+        <v>-658308</v>
       </c>
       <c r="H116" s="9">
-        <v>2529379</v>
+        <v>0</v>
       </c>
       <c r="I116" s="9">
-        <v>1853002</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-357664</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D117" s="11"/>
-      <c r="E117" s="11" t="s">
-        <v>13</v>
+      <c r="E117" s="11">
+        <v>63538</v>
       </c>
       <c r="F117" s="11">
-        <v>802396</v>
+        <v>92423</v>
       </c>
       <c r="G117" s="11">
-        <v>1191722</v>
-      </c>
-      <c r="H117" s="11">
-        <v>1107113</v>
-      </c>
-      <c r="I117" s="11">
-        <v>3419770</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>266415</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D118" s="9"/>
-      <c r="E118" s="9" t="s">
-        <v>13</v>
+      <c r="E118" s="9">
+        <v>25893</v>
       </c>
       <c r="F118" s="9">
-        <v>-407681</v>
+        <v>8697</v>
       </c>
       <c r="G118" s="9">
-        <v>-319532</v>
-      </c>
-      <c r="H118" s="9">
-        <v>-658308</v>
-      </c>
-      <c r="I118" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6705</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>40</v>
@@ -3072,87 +3067,39 @@
       <c r="E119" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F119" s="11">
-        <v>63538</v>
+      <c r="F119" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G119" s="11">
-        <v>92423</v>
-      </c>
-      <c r="H119" s="11">
-        <v>266415</v>
+        <v>9216</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I119" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" s="9">
-        <v>25893</v>
-      </c>
-      <c r="G120" s="9">
-        <v>8697</v>
-      </c>
-      <c r="H120" s="9">
-        <v>6705</v>
-      </c>
-      <c r="I120" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" s="11">
-        <v>9216</v>
-      </c>
-      <c r="I121" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15">
-        <v>0</v>
-      </c>
-      <c r="F122" s="15">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15">
         <v>2228726</v>
       </c>
-      <c r="G122" s="15">
+      <c r="F120" s="15">
         <v>3612438</v>
       </c>
-      <c r="H122" s="15">
+      <c r="G120" s="15">
         <v>4297108</v>
       </c>
-      <c r="I122" s="15">
+      <c r="H120" s="15">
         <v>6583360</v>
+      </c>
+      <c r="I120" s="15">
+        <v>9613029</v>
       </c>
     </row>
   </sheetData>
